--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2926">
   <si>
     <t>Name</t>
   </si>
@@ -8793,21 +8793,6 @@
   </si>
   <si>
     <t>trilagavit</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>2024-07-20</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>panadol</t>
-  </si>
-  <si>
-    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -9158,7 +9143,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2684"/>
+  <dimension ref="A1:G2676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F3" sqref="F3"/>
@@ -48354,154 +48339,27 @@
         <v>2925</v>
       </c>
       <c r="D2676">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="E2676">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2676" s="3" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="2677" spans="1:7">
-      <c r="C2677" t="s">
-        <v>2926</v>
-      </c>
-      <c r="D2677">
-        <v>2.0</v>
-      </c>
-      <c r="E2677">
-        <v>2.0</v>
-      </c>
-      <c r="F2677" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G2677">
-        <v>1717919938</v>
-      </c>
-    </row>
-    <row r="2678" spans="1:7">
-      <c r="C2678" t="s">
-        <v>2928</v>
-      </c>
-      <c r="D2678">
-        <v>1.0</v>
-      </c>
-      <c r="E2678">
-        <v>3.0</v>
-      </c>
-      <c r="F2678" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G2678">
-        <v>8856315018</v>
-      </c>
-    </row>
-    <row r="2679" spans="1:7">
-      <c r="C2679" t="s">
-        <v>2929</v>
-      </c>
-      <c r="D2679">
-        <v>2.0</v>
-      </c>
-      <c r="E2679">
-        <v>4.0</v>
-      </c>
-      <c r="F2679" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G2679">
-        <v>6868358570</v>
-      </c>
-    </row>
-    <row r="2680" spans="1:7">
-      <c r="C2680">
-        <v>3</v>
-      </c>
-      <c r="D2680">
-        <v>1.0</v>
-      </c>
-      <c r="E2680">
-        <v>1.0</v>
-      </c>
-      <c r="F2680" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G2680">
-        <v>8302225209</v>
-      </c>
-    </row>
-    <row r="2681" spans="1:7">
-      <c r="C2681" t="s">
-        <v>2929</v>
-      </c>
-      <c r="D2681">
-        <v>2.0</v>
-      </c>
-      <c r="E2681">
-        <v>4.0</v>
-      </c>
-      <c r="F2681" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G2681">
-        <v>9290917575</v>
-      </c>
-    </row>
-    <row r="2682" spans="1:7">
-      <c r="C2682" t="s">
-        <v>2929</v>
-      </c>
-      <c r="D2682">
-        <v>21.0</v>
-      </c>
-      <c r="E2682">
-        <v>42.0</v>
-      </c>
-      <c r="F2682" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G2682">
-        <v>6442139264</v>
-      </c>
-    </row>
-    <row r="2683" spans="1:7">
-      <c r="C2683" t="s">
-        <v>2929</v>
-      </c>
-      <c r="D2683">
-        <v>20.0</v>
-      </c>
-      <c r="E2683">
-        <v>40.0</v>
-      </c>
-      <c r="F2683" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G2683">
-        <v>1973155698</v>
-      </c>
-    </row>
-    <row r="2684" spans="1:7">
-      <c r="C2684" t="s">
-        <v>2930</v>
-      </c>
-      <c r="D2684">
-        <v>4.0</v>
-      </c>
-      <c r="E2684">
-        <v>12.0</v>
-      </c>
-      <c r="F2684" s="3" t="s">
-        <v>2927</v>
-      </c>
-      <c r="G2684">
-        <v>8444677952</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -47,31 +47,31 @@
     <t>استبدال الخيط المائي</t>
   </si>
   <si>
+    <t>عبدالله (القرم ) (99847158 )</t>
+  </si>
+  <si>
     <t>رؤوس الفرشاة</t>
   </si>
   <si>
     <t>استبدال الفرشاة</t>
   </si>
   <si>
-    <t>عرض الخيط والفرشاة</t>
-  </si>
-  <si>
-    <t>عرض الخيط</t>
-  </si>
-  <si>
-    <t>عرض لصقات</t>
-  </si>
-  <si>
-    <t>عرض لصقات الاسنان الحساسة</t>
-  </si>
-  <si>
-    <t>عرض الفرشاه</t>
+    <t>الخيط</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( ) ( )</t>
+  </si>
+  <si>
+    <t>لصقات الاسنان الحساسة</t>
+  </si>
+  <si>
+    <t>الفرشاه</t>
+  </si>
+  <si>
+    <t>هيثم (لوي ) (95947753 )</t>
   </si>
   <si>
     <t>فرشاة الأطفال</t>
-  </si>
-  <si>
-    <t>الخيط المائي ميني</t>
   </si>
 </sst>
 </file>
@@ -411,15 +411,34 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="3" max="3" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="16.425" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:20">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -451,31 +470,39 @@
         <v>9</v>
       </c>
       <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="M4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="S3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="S4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" t="s">
-        <v>18</v>
+      <c r="T4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>الخيط المائي</t>
   </si>
   <si>
+    <t>اروي (المضي ) (92965422 )</t>
+  </si>
+  <si>
     <t>لصقات</t>
   </si>
   <si>
@@ -47,9 +50,6 @@
     <t>استبدال الخيط المائي</t>
   </si>
   <si>
-    <t>عبدالله (القرم ) (99847158 )</t>
-  </si>
-  <si>
     <t>رؤوس الفرشاة</t>
   </si>
   <si>
@@ -59,19 +59,28 @@
     <t>الخيط</t>
   </si>
   <si>
-    <t xml:space="preserve"> ( ) ( )</t>
-  </si>
-  <si>
     <t>لصقات الاسنان الحساسة</t>
   </si>
   <si>
     <t>الفرشاه</t>
   </si>
   <si>
+    <t>فرشاة الأطفال</t>
+  </si>
+  <si>
     <t>هيثم (لوي ) (95947753 )</t>
   </si>
   <si>
-    <t>فرشاة الأطفال</t>
+    <t>باكج التبييض الفوري</t>
+  </si>
+  <si>
+    <t>الفرشاة الالكترونية p80</t>
+  </si>
+  <si>
+    <t>لصقات كرست professional effects</t>
+  </si>
+  <si>
+    <t>باكج التنظيف العميق</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30.564" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -428,46 +437,50 @@
     <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="28.136" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="37.705" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:24">
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
         <v>11</v>
@@ -479,30 +492,36 @@
         <v>13</v>
       </c>
       <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>17</v>
-      </c>
-      <c r="T4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
